--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24678368-C309-47D3-9B32-5B622CD1FBE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88CBE8E-703B-4362-BFBD-76A75882E5C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="26970" windowHeight="14415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="435" yWindow="900" windowWidth="26970" windowHeight="14415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,12 +31,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>adad</t>
+    <t>text A4</t>
   </si>
   <si>
-    <t>fghfh</t>
+    <t>text A5</t>
+  </si>
+  <si>
+    <t>text C11</t>
+  </si>
+  <si>
+    <t>text A10</t>
+  </si>
+  <si>
+    <t>text B9</t>
   </si>
 </sst>
 </file>
@@ -52,12 +61,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -72,8 +87,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -378,37 +396,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="C10" activeCellId="17" sqref="A1 A2 A5 A6 A8 A11 B10 B8 B7 B6 B5 B3 B1 C2 C4 C7 C9 C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
     <col min="6" max="6" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1">
+      <c r="A1" s="1">
         <v>13</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="1">
         <v>154</v>
       </c>
-      <c r="C1">
-        <v>154</v>
+      <c r="C1" s="3">
+        <f>C2+C4</f>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>-4</v>
       </c>
       <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2">
+        <v>154.13999999999999</v>
+      </c>
+      <c r="C2" s="1">
         <v>-4</v>
       </c>
     </row>
@@ -416,77 +437,101 @@
       <c r="A3">
         <v>154.13999999999999</v>
       </c>
-      <c r="B3">
-        <v>154.13999999999999</v>
+      <c r="B3" s="1">
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>154.13999999999999</v>
+        <v>21.14</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1">
+        <v>-122</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1">
+        <v>22</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="b">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-7</v>
+      </c>
+      <c r="C7" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <f>A5+A6</f>
+        <v>29</v>
+      </c>
+      <c r="B8" s="2">
+        <f>B6+B7</f>
+        <v>15</v>
+      </c>
+      <c r="C8" t="b">
         <v>0</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>22</v>
-      </c>
-      <c r="B5">
-        <v>22</v>
-      </c>
-      <c r="C5">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>-7</v>
-      </c>
-      <c r="C6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1">
         <v>54</v>
       </c>
-      <c r="B7">
-        <v>54</v>
-      </c>
-      <c r="C7">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>11</v>
       </c>
-      <c r="B9">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>11</v>
+      <c r="B11" t="b">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88CBE8E-703B-4362-BFBD-76A75882E5C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01CF7E4-4023-4B60-AAC9-F3B590C4E2B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="435" yWindow="900" windowWidth="26970" windowHeight="14415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,9 +36,6 @@
     <t>text A4</t>
   </si>
   <si>
-    <t>text A5</t>
-  </si>
-  <si>
     <t>text C11</t>
   </si>
   <si>
@@ -46,6 +43,9 @@
   </si>
   <si>
     <t>text B9</t>
+  </si>
+  <si>
+    <t>text C5</t>
   </si>
 </sst>
 </file>
@@ -399,7 +399,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" activeCellId="17" sqref="A1 A2 A5 A6 A8 A11 B10 B8 B7 B6 B5 B3 B1 C2 C4 C7 C9 C10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,7 +463,7 @@
         <v>-122</v>
       </c>
       <c r="C5" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -506,7 +506,7 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1">
         <v>54</v>
@@ -514,7 +514,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" s="1">
         <v>13</v>
@@ -531,7 +531,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
